--- a/cmip6/models/access-cm2/cmip6_csiro-arccss_access-cm2_ocean.xlsx
+++ b/cmip6/models/access-cm2/cmip6_csiro-arccss_access-cm2_ocean.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22111"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_313d\AC\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{EC85B79E-EB73-4F4B-8DD8-28373689D50E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{50A03292-E000-47F2-A0C1-7BC28A31949B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,20 @@
     <sheet name="7. Uplow Boundaries" sheetId="9" r:id="rId9"/>
     <sheet name="8. Boundary Forcing" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="829">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -37,7 +51,7 @@
     <t>Institute</t>
   </si>
   <si>
-    <t>CSIRO-ARCCSS</t>
+    <t>CSIRO-ARCCSS-BOM</t>
   </si>
   <si>
     <t>Model</t>
@@ -130,6 +144,18 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Marsland,S</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>Dobrohotoff,P</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
     <t>Citations</t>
   </si>
   <si>
@@ -142,6 +168,12 @@
     <t>Process</t>
   </si>
   <si>
+    <t>ocean_1</t>
+  </si>
+  <si>
+    <t>Top Level</t>
+  </si>
+  <si>
     <t>1.1.1</t>
   </si>
   <si>
@@ -166,6 +198,9 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
+    <t>GFDL MOM5.1</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -181,6 +216,9 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
+    <t>Boussinesq, level-coordinate (z-star), non-eddy resolving</t>
+  </si>
+  <si>
     <t>1.1.1.3 *</t>
   </si>
   <si>
@@ -235,15 +273,15 @@
     <t>cmip6.ocean.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Boussinesq</t>
+  </si>
+  <si>
     <t>Primitive equations</t>
   </si>
   <si>
     <t>Non-hydrostatic</t>
   </si>
   <si>
-    <t>Boussinesq</t>
-  </si>
-  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -256,12 +294,12 @@
     <t>cmip6.ocean.key_properties.prognostic_variables</t>
   </si>
   <si>
+    <t>Conservative temperature</t>
+  </si>
+  <si>
     <t>Potential temperature</t>
   </si>
   <si>
-    <t>Conservative temperature</t>
-  </si>
-  <si>
     <t>Salinity</t>
   </si>
   <si>
@@ -529,6 +567,9 @@
     <t>cmip6.ocean.key_properties.software_properties.repository</t>
   </si>
   <si>
+    <t>https://github.com/mom-ocean/MOM5.git</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
@@ -541,6 +582,9 @@
     <t>cmip6.ocean.key_properties.software_properties.code_version</t>
   </si>
   <si>
+    <t>MOM5.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
@@ -553,6 +597,9 @@
     <t>cmip6.ocean.key_properties.software_properties.code_languages</t>
   </si>
   <si>
+    <t>Fortran 90</t>
+  </si>
+  <si>
     <t>1.6.1</t>
   </si>
   <si>
@@ -581,6 +628,9 @@
   </si>
   <si>
     <t>cmip6.ocean.key_properties.resolution.canonical_horizontal_resolution</t>
+  </si>
+  <si>
+    <t>1 degree</t>
   </si>
   <si>
     <t>1.6.1.3 *</t>
@@ -806,6 +856,9 @@
     <t>cmip6.ocean.grid.name</t>
   </si>
   <si>
+    <t>ACCESS-OM</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
@@ -836,12 +889,12 @@
     <t>cmip6.ocean.grid.discretisation.vertical.coordinates</t>
   </si>
   <si>
+    <t>Z*-coordinate</t>
+  </si>
+  <si>
     <t>Z-coordinate</t>
   </si>
   <si>
-    <t>Z*-coordinate</t>
-  </si>
-  <si>
     <t>S-coordinate</t>
   </si>
   <si>
@@ -905,15 +958,15 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.type</t>
   </si>
   <si>
+    <t>Two north poles (ORCA-style)</t>
+  </si>
+  <si>
     <t>Lat-lon</t>
   </si>
   <si>
     <t>Rotated north pole</t>
   </si>
   <si>
-    <t>Two north poles (ORCA-style)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1.3.2 </t>
   </si>
   <si>
@@ -947,12 +1000,12 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
+    <t>Finite volumes</t>
+  </si>
+  <si>
     <t>Finite difference</t>
   </si>
   <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
     <t>Finite elements</t>
   </si>
   <si>
@@ -1418,15 +1471,15 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.direction</t>
   </si>
   <si>
+    <t>Isoneutral</t>
+  </si>
+  <si>
     <t>Horizontal</t>
   </si>
   <si>
     <t>Isopycnal</t>
   </si>
   <si>
-    <t>Isoneutral</t>
-  </si>
-  <si>
     <t>Geopotential</t>
   </si>
   <si>
@@ -1487,15 +1540,15 @@
     <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.type</t>
   </si>
   <si>
+    <t>Time + space varying (Smagorinsky)</t>
+  </si>
+  <si>
     <t>Constant</t>
   </si>
   <si>
     <t>Space varying</t>
   </si>
   <si>
-    <t>Time + space varying (Smagorinsky)</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.3.2 </t>
   </si>
   <si>
@@ -1712,6 +1765,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.flux_type</t>
   </si>
   <si>
+    <t>Skew flux</t>
+  </si>
+  <si>
     <t>5.2.4.4 *</t>
   </si>
   <si>
@@ -1724,6 +1780,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.added_diffusivity</t>
   </si>
   <si>
+    <t>Flow dependent</t>
+  </si>
+  <si>
     <t>6.1.1</t>
   </si>
   <si>
@@ -1913,12 +1972,12 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
   </si>
   <si>
+    <t>Enhanced vertical diffusion</t>
+  </si>
+  <si>
     <t>Non-penetrative convective adjustment</t>
   </si>
   <si>
-    <t>Enhanced vertical diffusion</t>
-  </si>
-  <si>
     <t>Included in turbulence closure</t>
   </si>
   <si>
@@ -1934,6 +1993,12 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
   </si>
   <si>
+    <t>Baroclinic tides</t>
+  </si>
+  <si>
+    <t>Barotropic tides</t>
+  </si>
+  <si>
     <t>6.1.5.3 *</t>
   </si>
   <si>
@@ -2336,12 +2401,12 @@
     <t>cmip6.ocean.boundary_forcing.momentum.lateral_friction.type</t>
   </si>
   <si>
+    <t>No-slip</t>
+  </si>
+  <si>
     <t>Free-slip</t>
   </si>
   <si>
-    <t>No-slip</t>
-  </si>
-  <si>
     <t>8.1.4</t>
   </si>
   <si>
@@ -2360,12 +2425,12 @@
     <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.scheme</t>
   </si>
   <si>
+    <t>2 extinction depth</t>
+  </si>
+  <si>
     <t>1 extinction depth</t>
   </si>
   <si>
-    <t>2 extinction depth</t>
-  </si>
-  <si>
     <t>3 extinction depth</t>
   </si>
   <si>
@@ -2405,6 +2470,9 @@
     <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.extinction_depths</t>
   </si>
   <si>
+    <t>Ocean bottom</t>
+  </si>
+  <si>
     <t>8.1.5</t>
   </si>
   <si>
@@ -2457,13 +2525,16 @@
   </si>
   <si>
     <t>cmip6.ocean.boundary_forcing.tracers.fresh_water_forcing.forced_mode_restoring</t>
+  </si>
+  <si>
+    <t>300 days/50 m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2564,6 +2635,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2606,10 +2685,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2653,12 +2733,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2705,7 +2797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2737,9 +2829,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2771,6 +2881,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2946,24 +3074,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2971,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +3107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +3115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +3123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3003,42 +3131,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20.25">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20.25">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20.25">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20.25">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20.25">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="18">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3046,7 +3174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="18">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -3054,7 +3182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -3062,7 +3190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -3070,13 +3198,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="20.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="20.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3084,20 +3212,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -3107,34 +3237,34 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3142,48 +3272,48 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3191,481 +3321,495 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B20" s="11" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="177.95" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="178" customHeight="1">
-      <c r="B30" s="11"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="177.95" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="177.95" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11"/>
       <c r="AA48" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>786</v>
+      </c>
       <c r="AA56" s="6" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>794</v>
+      </c>
       <c r="AA64" s="6" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="177.95" customHeight="1">
       <c r="B73" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
-      <c r="B86" s="11"/>
+      <c r="B86" s="11" t="s">
+        <v>817</v>
+      </c>
       <c r="AA86" s="6" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
+      <c r="B90" s="11" t="s">
+        <v>817</v>
+      </c>
       <c r="AA90" s="6" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
-      <c r="B94" s="11"/>
+      <c r="B94" s="11" t="s">
+        <v>828</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>AA48:AF48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B90 B64" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>AA56:AD56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>AA64:AD64</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86" xr:uid="{00000000-0002-0000-0900-000004000000}">
       <formula1>AA86:AC86</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
-      <formula1>AA90:AD90</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3673,19 +3817,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="80.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -3696,7 +3842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -3712,7 +3858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -3720,62 +3866,84 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Timestepping Framework,Advection,Lateral Physics,Vertical Physics,Uplow Boundaries,Boundary Forcing"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH203"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -3785,144 +3953,150 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -3931,811 +4105,941 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>74</v>
+    </row>
+    <row r="26" spans="1:34" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>76</v>
+      <c r="A28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="B29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="12" t="s">
+    <row r="31" spans="1:34" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+      <c r="AA31" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="AB31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="AD31" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="AE31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="AF31" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
+      <c r="AG31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AB38" s="6" t="s">
+      <c r="AH31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="24" customHeight="1">
+      <c r="A38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="B38" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AD38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:34" ht="24" customHeight="1">
+      <c r="B39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AE38" s="6" t="s">
+    </row>
+    <row r="41" spans="1:34" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AF38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="9" t="s">
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1">
+      <c r="A42" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="10" t="s">
+    </row>
+    <row r="43" spans="1:34" ht="24" customHeight="1">
+      <c r="B43" s="11"/>
+      <c r="AA43" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="AB43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="AC43" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="AD43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="AE43" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-      <c r="AA46" s="6" t="s">
+      <c r="AF43" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AB46" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+    <row r="46" spans="1:34" ht="24" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>107</v>
       </c>
     </row>
+    <row r="47" spans="1:34" ht="24" customHeight="1">
+      <c r="B47" s="11"/>
+      <c r="AA47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="49" spans="1:28" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
+      <c r="A50" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AB50" s="6" t="s">
+      <c r="C50" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+    <row r="51" spans="1:28" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+      <c r="AA51" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="AB51" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="A54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="55" spans="1:28" ht="24" customHeight="1">
+      <c r="B55" s="11"/>
+      <c r="AA55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
+      <c r="B57" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:28" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A58" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="C58" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="24" customHeight="1">
+      <c r="B59" s="11"/>
+      <c r="AA59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>124</v>
       </c>
+      <c r="B61" s="9" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="A62" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" ht="24" customHeight="1">
+      <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="C66" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="24" customHeight="1">
+      <c r="B67" s="11"/>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB70" s="6" t="s">
+      <c r="A70" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AC70" s="6" t="s">
+      <c r="B70" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AD70" s="6" t="s">
+    </row>
+    <row r="71" spans="1:32" ht="24" customHeight="1">
+      <c r="B71" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="AE70" s="6" t="s">
+    </row>
+    <row r="73" spans="1:32" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AF70" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="9" t="s">
+    </row>
+    <row r="74" spans="1:32" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
+      <c r="C74" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="10" t="s">
+    </row>
+    <row r="75" spans="1:32" ht="24" customHeight="1">
+      <c r="B75" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="AA75" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB75" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:32" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
+      <c r="AC75" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="AD75" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="AE75" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF75" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="B77" s="9" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="178" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="A78" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="24" customHeight="1">
+      <c r="B79" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B84" s="11"/>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>151</v>
+      <c r="A86" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="A87" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="C87" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="A91" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="13" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
       <c r="B96" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="177.95" customHeight="1">
       <c r="B97" s="11"/>
     </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>162</v>
+      <c r="A100" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>167</v>
-      </c>
+      <c r="B101" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B102" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="9" t="s">
+      <c r="A105" s="12" t="s">
         <v>169</v>
       </c>
+      <c r="B105" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>171</v>
+      <c r="A108" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>173</v>
+      <c r="A109" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>175</v>
+      <c r="A112" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
-        <v>51</v>
+      <c r="A113" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>177</v>
+      <c r="A117" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>181</v>
+      <c r="B118" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="B119" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>183</v>
+      <c r="A122" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="B123" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>185</v>
+      <c r="A125" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="A126" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>189</v>
+      <c r="A129" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>191</v>
+      <c r="A130" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
+      <c r="B131" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>194</v>
+      <c r="A133" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="A134" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>198</v>
+      <c r="A137" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
-    </row>
-    <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>200</v>
+      <c r="A138" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="B139" s="11">
+        <v>108000</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>202</v>
+      <c r="A141" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
-    </row>
-    <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="9" t="s">
+      <c r="A142" s="14" t="s">
         <v>204</v>
       </c>
+      <c r="B142" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="B143" s="11">
+        <v>50</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>206</v>
+      <c r="A145" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
+      <c r="A146" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="B147" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>208</v>
+      <c r="A149" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>213</v>
+      <c r="A150" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="B151" s="11">
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
+      <c r="A154" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="B155" s="13" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="A158" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
       <c r="B159" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="177.95" customHeight="1">
       <c r="B160" s="11"/>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="B164" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -4743,165 +5047,165 @@
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="B169" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="B170" s="11"/>
     </row>
+    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="A172" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>227</v>
+      <c r="A173" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>231</v>
-      </c>
+      <c r="B174" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="24" customHeight="1">
+      <c r="B175" s="11"/>
     </row>
     <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:32" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
+      <c r="A178" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32" ht="24" customHeight="1">
+      <c r="B179" s="13" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="181" spans="1:32" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:32" ht="24" customHeight="1">
       <c r="A182" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:32" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:32" ht="24" customHeight="1">
+      <c r="B183" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="177.95" customHeight="1">
       <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB184" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC184" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD184" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE184" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF184" s="6" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="186" spans="1:32" ht="24" customHeight="1">
       <c r="A186" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:32" ht="24" customHeight="1">
       <c r="A187" s="14" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="8" t="s">
-        <v>51</v>
+      <c r="B188" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="24" customHeight="1">
       <c r="B189" s="11"/>
+      <c r="AA189" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB189" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC189" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD189" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE189" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF189" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="191" spans="1:32" ht="24" customHeight="1">
       <c r="A191" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="1:32" ht="24" customHeight="1">
       <c r="A192" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="B193" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -4909,97 +5213,96 @@
     </row>
     <row r="196" spans="1:3" ht="24" customHeight="1">
       <c r="A196" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="A197" s="14" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
-      <c r="B198" s="11"/>
+      <c r="B198" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="24" customHeight="1">
+      <c r="B199" s="11"/>
+    </row>
+    <row r="201" spans="1:3" ht="24" customHeight="1">
+      <c r="A201" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="24" customHeight="1">
+      <c r="A202" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="24" customHeight="1">
+      <c r="B203" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B25:B26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AD25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B35" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>AA31:AH31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AH30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B189 B75" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>AA43:AF43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AF38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B59 B55 B51" xr:uid="{00000000-0002-0000-0200-000004000000}">
+      <formula1>AA47:AB47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AB42</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B151 B67" xr:uid="{00000000-0002-0000-0200-000008000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AB46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AB50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AB54</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79 B203 B147" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139 B143" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AF184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{0239387E-C59F-400D-9E06-CA09E4A024F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -5009,302 +5312,311 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>282</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="AA35" s="6" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>319</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AN19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>AA31:AD31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B39" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>AA35:AE35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AE39</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5312,12 +5624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AH63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -5327,34 +5641,34 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5362,141 +5676,141 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5504,111 +5818,111 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5616,68 +5930,68 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5685,64 +5999,52 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B51" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AD15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B39" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>AA23:AH23</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B55 B43" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>AA35:AC35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AH39</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>AA51:AD51</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5750,12 +6052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AE68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -5765,34 +6069,34 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5800,89 +6104,89 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
@@ -5890,21 +6194,21 @@
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5912,34 +6216,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5947,43 +6251,45 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5991,21 +6297,21 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -6013,21 +6319,21 @@
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6038,38 +6344,38 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6077,34 +6383,34 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6112,49 +6418,45 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA19:AB19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B68 B39" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>AA52:AE52</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6162,12 +6464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -6177,34 +6481,34 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6212,244 +6516,248 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>476</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>499</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6457,21 +6765,21 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6479,21 +6787,21 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -6501,21 +6809,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6523,56 +6831,58 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6580,186 +6890,188 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>476</v>
+      </c>
       <c r="AA75" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -6767,21 +7079,21 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6789,21 +7101,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6811,21 +7123,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6833,62 +7145,64 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>565</v>
+      </c>
       <c r="AA115" s="6" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6896,103 +7210,71 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
       <c r="A122" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>579</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B79 B27" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>AA15:AC15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B75" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>AA23:AF23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B91 B83 B39" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>AA31:AD31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AD39</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 B119 B103 B95" xr:uid="{00000000-0002-0000-0600-000005000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55 B107 B67 B63" xr:uid="{00000000-0002-0000-0600-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>AA75:AF75</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AC79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
-      <formula1>AA83:AD83</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AD91</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B115" xr:uid="{00000000-0002-0000-0600-000010000000}">
       <formula1>AA115:AB115</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7000,12 +7282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AI120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -7015,34 +7299,34 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7050,61 +7334,61 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7112,83 +7396,83 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11"/>
       <c r="AA27" s="6" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7196,21 +7480,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7218,21 +7502,21 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
@@ -7240,83 +7524,83 @@
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11"/>
       <c r="AA47" s="6" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7324,21 +7608,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7346,21 +7630,21 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -7368,409 +7652,390 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>643</v>
+      </c>
       <c r="AA67" s="6" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>636</v>
+      <c r="B71" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>638</v>
+      <c r="A74" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>640</v>
-      </c>
+      <c r="A75" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
+      <c r="B76" s="11"/>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>642</v>
+      <c r="A78" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:33" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>644</v>
-      </c>
+      <c r="A79" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="24" customHeight="1">
+      <c r="B80" s="11"/>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="85" spans="1:33" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>138</v>
+      <c r="A83" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" ht="24" customHeight="1">
+      <c r="B84" s="13" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>648</v>
+      <c r="A86" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-      <c r="AA87" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="AB87" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="AC87" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="AD87" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="AE87" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF87" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="AG87" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:33" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>486</v>
+      <c r="A87" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+      <c r="AA88" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB88" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC88" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD88" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE88" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AF88" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AG88" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>652</v>
+      <c r="A90" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:33" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>654</v>
-      </c>
+      <c r="A91" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" ht="24" customHeight="1">
+      <c r="B92" s="11"/>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>656</v>
+      <c r="A94" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="97" spans="1:33" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>603</v>
-      </c>
+      <c r="A95" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" ht="24" customHeight="1">
+      <c r="B96" s="11"/>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>659</v>
+      <c r="A98" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
-    </row>
-    <row r="102" spans="1:33" ht="24" customHeight="1">
-      <c r="A102" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>661</v>
-      </c>
+      <c r="A99" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" ht="24" customHeight="1">
+      <c r="B100" s="11"/>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
-      <c r="B103" s="13" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="105" spans="1:33" ht="24" customHeight="1">
-      <c r="A105" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>138</v>
+      <c r="A103" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" ht="24" customHeight="1">
+      <c r="B104" s="13" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>665</v>
+      <c r="A106" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
-      <c r="B107" s="11"/>
-      <c r="AA107" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="AB107" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="AC107" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="AD107" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="AE107" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF107" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="AG107" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:33" ht="24" customHeight="1">
-      <c r="A109" s="9" t="s">
+      <c r="A107" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" ht="24" customHeight="1">
+      <c r="B108" s="11"/>
+      <c r="AA108" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB108" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>486</v>
+      <c r="AC108" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD108" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE108" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AF108" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AG108" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
-      <c r="A110" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>668</v>
+      <c r="A110" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
-      <c r="B111" s="11"/>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>654</v>
-      </c>
+      <c r="A111" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" ht="24" customHeight="1">
+      <c r="B112" s="11"/>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C114" s="10" t="s">
+      <c r="A114" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="B115" s="11"/>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>603</v>
-      </c>
+      <c r="A115" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="B116" s="11"/>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>674</v>
+      <c r="A118" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="A119" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24" customHeight="1">
+      <c r="B120" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B96 B80 B76" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B47" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>AA27:AI27</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B51" xr:uid="{00000000-0002-0000-0700-000002000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B112 B92 B55" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>AA47:AI47</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>AA67:AD67</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>AA87:AG87</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B107">
-      <formula1>AA107:AG107</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88 B108" xr:uid="{00000000-0002-0000-0700-00000A000000}">
+      <formula1>AA88:AG88</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7778,12 +8043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="150.7109375" customWidth="1"/>
@@ -7793,34 +8060,34 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7828,107 +8095,107 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7936,92 +8203,92 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="177.95" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8029,43 +8296,43 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="178" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="177.95" customHeight="1">
       <c r="B45" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA19:AH19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>AA36:AC36</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
